--- a/输出模版.xlsx
+++ b/输出模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="7000"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="【附表2-1】年、月、周作业计划审批表" sheetId="1" r:id="rId1"/>
@@ -1207,26 +1207,26 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A8" sqref="$A8:$XFD70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="7.16363636363636" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5909090909091" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3272727272727" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.26363636363636" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.4363636363636" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6909090909091" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5454545454545" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.0090909090909" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.16666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5916666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.325" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.26666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.4333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6916666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5416666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.0083333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="1" customWidth="1"/>
     <col min="11" max="12" width="8" style="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.4181818181818" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.4166666666667" style="1" customWidth="1"/>
     <col min="16" max="16378" width="9" style="4" customWidth="1"/>
     <col min="16379" max="16381" width="9" customWidth="1"/>
   </cols>
